--- a/HTML/333/Home.xlsx
+++ b/HTML/333/Home.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\333\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E35FDA-E922-4B90-8E5F-CB5E59CAADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{332C2702-D8F8-488A-86C9-974DB95BB722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>صندوق الإسكان الاجتماعي ودعم التمويل العقاري</t>
   </si>
@@ -84,19 +84,10 @@
     <t>ارقام سماسرة</t>
   </si>
   <si>
-    <t>مكتب العمدة للعقارات 10 ش سليمان نور الدين العشرين .. فيصل.. جيزة مصـر</t>
-  </si>
-  <si>
-    <t>اول حاجة لازم اتاكد ان العمارة مبنية علي ارض مترخصة</t>
-  </si>
-  <si>
     <t>الارض ملك لواحد ولا لعدة اشخاص</t>
   </si>
   <si>
     <t>و عليها منازعة قضائية ولا لأ</t>
-  </si>
-  <si>
-    <t>التاكد من رخصة مباني للعمارة و عدد ادوار المرصح ليها للبناء</t>
   </si>
   <si>
     <t>العقد الخاص بالشقة</t>
@@ -129,13 +120,73 @@
   <si>
     <t>صندوق الإسكان الاجتماعي 
 ودعم التمويل العقاري || فيسبوك</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Adreess</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Phone Number2</t>
+  </si>
+  <si>
+    <t>Phone Number4</t>
+  </si>
+  <si>
+    <t>Phone Number3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 ش سليمان نور الدين العشرين .. فيصل.. جيزة مصـر</t>
+  </si>
+  <si>
+    <t>مكتب العمدة للعقارات</t>
+  </si>
+  <si>
+    <t>Advises</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لازم اتاكد ان العمارة مبنية علي </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ارض مترخصة</t>
+    </r>
+  </si>
+  <si>
+    <t>التأكد من رخصة مباني للعمارة و عدد ادوار المرصح ليها للبناء</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>شقق فيصل والهرم للبيع | Facebook</t>
+  </si>
+  <si>
+    <t>سوق عقارات فيصل والهرم | Facebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,11 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -166,20 +212,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -188,56 +220,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -260,33 +331,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -569,143 +665,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="0" style="10" hidden="1"/>
-    <col min="5" max="16383" width="9.140625" style="10" hidden="1"/>
-    <col min="16384" max="16384" width="6.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="40.85546875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25"/>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.shmff.gov.eg/wps/portal/MFF/Home/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizRwtzDwsTAx9LMIMLAwcQ42DDMM8fYwN3M30wwkpiAJKG-AAjgZA_VFgJXAT_H2DTQ0cDf2Dg41M3A3cnY2hCvCYEZxYpF-QG2GQZeKoCAC5BG0u/dz/d5/L2dJQSEvUUt3QS80TmxFL1o2XzZBODZIODQxTDhWMDgwQVUzUjFWSUwzMEc2/" xr:uid="{F0D78CF4-C133-4AA5-B4C6-36CF95E29636}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/SHMFFEG" xr:uid="{A483237D-A6D1-4F7E-9B9F-5535999F7BD1}"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://www.youtube.com/channel/UC68MAMp5g8Lft48Knm3pheg/videos" xr:uid="{19BD3361-FE58-4FEA-B41E-A3E70E46889C}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.youtube.com/channel/UC7i1WDNbbKbjWY4OIGCst8w/videos" xr:uid="{E6BB63F2-A886-45EE-8CD7-3C59A0961EFD}"/>
-    <hyperlink ref="B3" r:id="rId5" display="https://aqarmap.com.eg/ar" xr:uid="{E4FA56D4-5EEC-4109-882C-5C5E2F762572}"/>
-    <hyperlink ref="A3" r:id="rId6" display="https://www.semsarmasr.com/" xr:uid="{6FA1E058-F4BB-4E7A-AC12-5476FB51D18C}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.shmff.gov.eg/wps/portal/MFF/Home/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizRwtzDwsTAx9LMIMLAwcQ42DDMM8fYwN3M30wwkpiAJKG-AAjgZA_VFgJXAT_H2DTQ0cDf2Dg41M3A3cnY2hCvCYEZxYpF-QG2GQZeKoCAC5BG0u/dz/d5/L2dJQSEvUUt3QS80TmxFL1o2XzZBODZIODQxTDhWMDgwQVUzUjFWSUwzMEc2/" xr:uid="{F0D78CF4-C133-4AA5-B4C6-36CF95E29636}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.facebook.com/SHMFFEG" xr:uid="{A483237D-A6D1-4F7E-9B9F-5535999F7BD1}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.youtube.com/channel/UC68MAMp5g8Lft48Knm3pheg/videos" xr:uid="{19BD3361-FE58-4FEA-B41E-A3E70E46889C}"/>
+    <hyperlink ref="A3" r:id="rId4" display="https://www.youtube.com/channel/UC7i1WDNbbKbjWY4OIGCst8w/videos" xr:uid="{E6BB63F2-A886-45EE-8CD7-3C59A0961EFD}"/>
+    <hyperlink ref="C3" r:id="rId5" display="https://aqarmap.com.eg/ar" xr:uid="{E4FA56D4-5EEC-4109-882C-5C5E2F762572}"/>
+    <hyperlink ref="C2" r:id="rId6" display="https://www.semsarmasr.com/" xr:uid="{6FA1E058-F4BB-4E7A-AC12-5476FB51D18C}"/>
     <hyperlink ref="B4" r:id="rId7" display="https://aleqaria.com.eg/" xr:uid="{D92F29DE-8924-49F9-9263-C110F1364988}"/>
     <hyperlink ref="A5" r:id="rId8" display="https://www.youtube.com/channel/UCJLF9U6vjPMxbgwQPxe6mlw/videos" xr:uid="{7B449496-E3DC-4696-BE8A-0C374B7C7E72}"/>
     <hyperlink ref="A4" r:id="rId9" display="https://www.facebook.com/groups/360429968016346" xr:uid="{F3493D13-FF3D-4F1E-A63C-B6DC2D1B4EFE}"/>
     <hyperlink ref="B5" r:id="rId10" display="https://www.facebook.com/MohamedAbdelNasser74" xr:uid="{3D12A194-7A00-49FC-B30E-581276A3E4A4}"/>
-    <hyperlink ref="C3" location="Companies!A1" display="Companies!A1" xr:uid="{8C10CB62-CBFE-4C1E-936F-0E2D0C347B8F}"/>
-    <hyperlink ref="C2" location="Advise1!A1" display="نصائح للشقق الايجار" xr:uid="{19075B46-FB7E-49FE-A058-DABA19BF29C4}"/>
+    <hyperlink ref="A1" location="Companies!A1" display="Companies!A1" xr:uid="{8C10CB62-CBFE-4C1E-936F-0E2D0C347B8F}"/>
+    <hyperlink ref="B1" location="Advise1!A1" display="نصائح للشقق الايجار" xr:uid="{19075B46-FB7E-49FE-A058-DABA19BF29C4}"/>
     <hyperlink ref="C1" location="Numbers!A1" display="ارقام سماسرة" xr:uid="{0B5A0362-45BC-463C-B893-8EE2E22B158B}"/>
+    <hyperlink ref="C5" r:id="rId11" display="سوق عقارات فيصل والهرم" xr:uid="{ADDDA7AB-1712-4F4B-8A06-69AC42858E42}"/>
+    <hyperlink ref="C4" r:id="rId12" display="https://www.facebook.com/groups/1651864581497187/?notif_id=1676920546287217&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{3C362A67-5F58-4B2A-92A3-92A14E06E636}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9F51BB-BADA-4D95-9865-59B1F59CE0F2}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="16384" width="26.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Home!A1" display="Back" xr:uid="{E4FD3AF3-A2A9-4856-98A7-69A287D6D154}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -713,47 +899,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D371EBEC-B1A6-4EEC-A3BA-4AF15A61EE3E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="9" customWidth="1"/>
+    <col min="3" max="6" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1227504373</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1023409495</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1115204079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
         <v>1028358685</v>
       </c>
-      <c r="C1" s="2">
-        <v>1227504373</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1023409495</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="D3" s="10">
         <v>1221416005</v>
       </c>
-      <c r="F1" s="2">
-        <v>1115204079</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" location="Home!A1" display="Back" xr:uid="{7A98A2FF-8D88-46D1-B9FF-0B58E4094B3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -761,80 +981,126 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92FE6A6-9404-4BB5-96FC-75AE0E4EB323}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.5703125" customWidth="1"/>
+    <col min="1" max="1" width="112.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="12" customWidth="1"/>
+    <col min="3" max="7" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://www.youtube.com/watch?v=pER0VDolayk" xr:uid="{2B86CBA5-C9E7-4D1F-8B81-466624AB9DC5}"/>
+    <hyperlink ref="A18" r:id="rId1" display="https://www.youtube.com/watch?v=pER0VDolayk" xr:uid="{2B86CBA5-C9E7-4D1F-8B81-466624AB9DC5}"/>
+    <hyperlink ref="B1" location="Home!A1" display="Back" xr:uid="{1FFB774B-58D0-4604-BFC5-5D24C629D560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/HTML/333/Home.xlsx
+++ b/HTML/333/Home.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\333\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{332C2702-D8F8-488A-86C9-974DB95BB722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1092181-46CE-432F-8969-77DCC5EACF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>صندوق الإسكان الاجتماعي ودعم التمويل العقاري</t>
   </si>
@@ -176,17 +176,34 @@
     <t>Link</t>
   </si>
   <si>
-    <t>شقق فيصل والهرم للبيع | Facebook</t>
-  </si>
-  <si>
-    <t>سوق عقارات فيصل والهرم | Facebook</t>
+    <t>شقق مفروشه للايجار فيصل والهرم
+[943068922832757]</t>
+  </si>
+  <si>
+    <t>شقق تمليك ٢٠٠ ألف
+[2843509115887407]</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>سوق عقارات فيصل والهرم
+[]</t>
+  </si>
+  <si>
+    <t>شقق فيصل والهرم للبيع
+[]</t>
+  </si>
+  <si>
+    <t>شقق تمليك بمقدم بسيط وقسط بسيط
+[229042604342283]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +305,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -326,12 +357,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +451,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,79 +751,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="40.85546875" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,37 +831,77 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
+    <row r="9" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.shmff.gov.eg/wps/portal/MFF/Home/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizRwtzDwsTAx9LMIMLAwcQ42DDMM8fYwN3M30wwkpiAJKG-AAjgZA_VFgJXAT_H2DTQ0cDf2Dg41M3A3cnY2hCvCYEZxYpF-QG2GQZeKoCAC5BG0u/dz/d5/L2dJQSEvUUt3QS80TmxFL1o2XzZBODZIODQxTDhWMDgwQVUzUjFWSUwzMEc2/" xr:uid="{F0D78CF4-C133-4AA5-B4C6-36CF95E29636}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.facebook.com/SHMFFEG" xr:uid="{A483237D-A6D1-4F7E-9B9F-5535999F7BD1}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://www.youtube.com/channel/UC68MAMp5g8Lft48Knm3pheg/videos" xr:uid="{19BD3361-FE58-4FEA-B41E-A3E70E46889C}"/>
-    <hyperlink ref="A3" r:id="rId4" display="https://www.youtube.com/channel/UC7i1WDNbbKbjWY4OIGCst8w/videos" xr:uid="{E6BB63F2-A886-45EE-8CD7-3C59A0961EFD}"/>
-    <hyperlink ref="C3" r:id="rId5" display="https://aqarmap.com.eg/ar" xr:uid="{E4FA56D4-5EEC-4109-882C-5C5E2F762572}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://www.semsarmasr.com/" xr:uid="{6FA1E058-F4BB-4E7A-AC12-5476FB51D18C}"/>
-    <hyperlink ref="B4" r:id="rId7" display="https://aleqaria.com.eg/" xr:uid="{D92F29DE-8924-49F9-9263-C110F1364988}"/>
-    <hyperlink ref="A5" r:id="rId8" display="https://www.youtube.com/channel/UCJLF9U6vjPMxbgwQPxe6mlw/videos" xr:uid="{7B449496-E3DC-4696-BE8A-0C374B7C7E72}"/>
-    <hyperlink ref="A4" r:id="rId9" display="https://www.facebook.com/groups/360429968016346" xr:uid="{F3493D13-FF3D-4F1E-A63C-B6DC2D1B4EFE}"/>
-    <hyperlink ref="B5" r:id="rId10" display="https://www.facebook.com/MohamedAbdelNasser74" xr:uid="{3D12A194-7A00-49FC-B30E-581276A3E4A4}"/>
-    <hyperlink ref="A1" location="Companies!A1" display="Companies!A1" xr:uid="{8C10CB62-CBFE-4C1E-936F-0E2D0C347B8F}"/>
-    <hyperlink ref="B1" location="Advise1!A1" display="نصائح للشقق الايجار" xr:uid="{19075B46-FB7E-49FE-A058-DABA19BF29C4}"/>
-    <hyperlink ref="C1" location="Numbers!A1" display="ارقام سماسرة" xr:uid="{0B5A0362-45BC-463C-B893-8EE2E22B158B}"/>
-    <hyperlink ref="C5" r:id="rId11" display="سوق عقارات فيصل والهرم" xr:uid="{ADDDA7AB-1712-4F4B-8A06-69AC42858E42}"/>
-    <hyperlink ref="C4" r:id="rId12" display="https://www.facebook.com/groups/1651864581497187/?notif_id=1676920546287217&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{3C362A67-5F58-4B2A-92A3-92A14E06E636}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.shmff.gov.eg/wps/portal/MFF/Home/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizRwtzDwsTAx9LMIMLAwcQ42DDMM8fYwN3M30wwkpiAJKG-AAjgZA_VFgJXAT_H2DTQ0cDf2Dg41M3A3cnY2hCvCYEZxYpF-QG2GQZeKoCAC5BG0u/dz/d5/L2dJQSEvUUt3QS80TmxFL1o2XzZBODZIODQxTDhWMDgwQVUzUjFWSUwzMEc2/" xr:uid="{F0D78CF4-C133-4AA5-B4C6-36CF95E29636}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/SHMFFEG" xr:uid="{A483237D-A6D1-4F7E-9B9F-5535999F7BD1}"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://www.youtube.com/channel/UC68MAMp5g8Lft48Knm3pheg/videos" xr:uid="{19BD3361-FE58-4FEA-B41E-A3E70E46889C}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.youtube.com/channel/UC7i1WDNbbKbjWY4OIGCst8w/videos" xr:uid="{E6BB63F2-A886-45EE-8CD7-3C59A0961EFD}"/>
+    <hyperlink ref="C2" r:id="rId5" display="https://aqarmap.com.eg/ar" xr:uid="{E4FA56D4-5EEC-4109-882C-5C5E2F762572}"/>
+    <hyperlink ref="C1" r:id="rId6" display="https://www.semsarmasr.com/" xr:uid="{6FA1E058-F4BB-4E7A-AC12-5476FB51D18C}"/>
+    <hyperlink ref="B3" r:id="rId7" display="https://aleqaria.com.eg/" xr:uid="{D92F29DE-8924-49F9-9263-C110F1364988}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.youtube.com/channel/UCJLF9U6vjPMxbgwQPxe6mlw/videos" xr:uid="{7B449496-E3DC-4696-BE8A-0C374B7C7E72}"/>
+    <hyperlink ref="A3" r:id="rId9" display="https://www.facebook.com/groups/360429968016346" xr:uid="{F3493D13-FF3D-4F1E-A63C-B6DC2D1B4EFE}"/>
+    <hyperlink ref="B4" r:id="rId10" display="https://www.facebook.com/MohamedAbdelNasser74" xr:uid="{3D12A194-7A00-49FC-B30E-581276A3E4A4}"/>
+    <hyperlink ref="D4" location="Companies!A1" display="Companies!A1" xr:uid="{8C10CB62-CBFE-4C1E-936F-0E2D0C347B8F}"/>
+    <hyperlink ref="D3" location="Advise1!A1" display="نصائح للشقق الايجار" xr:uid="{19075B46-FB7E-49FE-A058-DABA19BF29C4}"/>
+    <hyperlink ref="D2" location="Numbers!A1" display="ارقام سماسرة" xr:uid="{0B5A0362-45BC-463C-B893-8EE2E22B158B}"/>
+    <hyperlink ref="C8" r:id="rId11" display="سوق عقارات فيصل والهرم" xr:uid="{ADDDA7AB-1712-4F4B-8A06-69AC42858E42}"/>
+    <hyperlink ref="A9" r:id="rId12" display="https://www.facebook.com/groups/1651864581497187/?notif_id=1676920546287217&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{3C362A67-5F58-4B2A-92A3-92A14E06E636}"/>
+    <hyperlink ref="B8" r:id="rId13" display="https://www.facebook.com/groups/943068922832757/?notif_id=1677584840074067&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{ABF1F29F-FABD-49FD-A684-E4257537A0E2}"/>
+    <hyperlink ref="A8" r:id="rId14" display="https://www.facebook.com/groups/2843509115887407/" xr:uid="{C991E270-A83D-478E-9552-E544044F274D}"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://www.facebook.com/groups/229042604342283/" xr:uid="{508944FA-2B64-4D60-A23C-5D2662FE3D43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/HTML/333/Home.xlsx
+++ b/HTML/333/Home.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\333\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1092181-46CE-432F-8969-77DCC5EACF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{986D2566-6D07-4339-9F2D-193357E9DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="6" r:id="rId1"/>
     <sheet name="Companies" sheetId="2" r:id="rId2"/>
     <sheet name="Numbers" sheetId="3" r:id="rId3"/>
     <sheet name="Advise1" sheetId="4" r:id="rId4"/>
+    <sheet name="AVG" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>صندوق الإسكان الاجتماعي ودعم التمويل العقاري</t>
   </si>
   <si>
-    <t>عمرو ذكي والاسكان || يوتيوب</t>
-  </si>
-  <si>
     <t>عقارك هنا || يوتيوب</t>
   </si>
   <si>
@@ -51,12 +49,6 @@
     <t>محمد عبدالناصر</t>
   </si>
   <si>
-    <t>شقق قانون قديم</t>
-  </si>
-  <si>
-    <t>محمد عبدالناصر2</t>
-  </si>
-  <si>
     <t>قبل ما تشترى شقة اسمع هذه النصائح حتى لا تندم وقت لا ينفع الندم</t>
   </si>
   <si>
@@ -81,9 +73,6 @@
     <t>المصرفية للتمويل</t>
   </si>
   <si>
-    <t>ارقام سماسرة</t>
-  </si>
-  <si>
     <t>الارض ملك لواحد ولا لعدة اشخاص</t>
   </si>
   <si>
@@ -114,14 +103,6 @@
     <t>نصائح للشقق الايجار</t>
   </si>
   <si>
-    <t>شركات التمويل العقاري
- لمحدودي الدخل</t>
-  </si>
-  <si>
-    <t>صندوق الإسكان الاجتماعي 
-ودعم التمويل العقاري || فيسبوك</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -135,15 +116,6 @@
   </si>
   <si>
     <t>Back</t>
-  </si>
-  <si>
-    <t>Phone Number2</t>
-  </si>
-  <si>
-    <t>Phone Number4</t>
-  </si>
-  <si>
-    <t>Phone Number3</t>
   </si>
   <si>
     <t xml:space="preserve">  10 ش سليمان نور الدين العشرين .. فيصل.. جيزة مصـر</t>
@@ -184,26 +156,201 @@
 [2843509115887407]</t>
   </si>
   <si>
-    <t>Groups</t>
+    <t>شقق فيصل والهرم للبيع
+[1651864581497187]</t>
+  </si>
+  <si>
+    <t>شقق تمليك بمقدم/قسط
+[229042604342283]</t>
   </si>
   <si>
     <t>سوق عقارات فيصل والهرم
-[]</t>
-  </si>
-  <si>
-    <t>شقق فيصل والهرم للبيع
-[]</t>
-  </si>
-  <si>
-    <t>شقق تمليك بمقدم بسيط وقسط بسيط
-[229042604342283]</t>
+[samirsuleiman]</t>
+  </si>
+  <si>
+    <t>عمرو ذكي والاسكان</t>
+  </si>
+  <si>
+    <t>شركات التمويل العقاري</t>
+  </si>
+  <si>
+    <t>متوسط الأسعار   إيجار قديم</t>
+  </si>
+  <si>
+    <t>السعر</t>
+  </si>
+  <si>
+    <t>المساحة</t>
+  </si>
+  <si>
+    <t>الدور</t>
+  </si>
+  <si>
+    <t>عددا الغرف</t>
+  </si>
+  <si>
+    <t>نوع التشطيب</t>
+  </si>
+  <si>
+    <t>نصف</t>
+  </si>
+  <si>
+    <t>العنوان</t>
+  </si>
+  <si>
+    <t>قبل المنيب جزيرة الدهب - جزيرة الدهب وكولدير</t>
+  </si>
+  <si>
+    <t>رقم الهاتف</t>
+  </si>
+  <si>
+    <t>اسم البائع</t>
+  </si>
+  <si>
+    <t>غادة مصطفي</t>
+  </si>
+  <si>
+    <t>رابط الاعلان</t>
+  </si>
+  <si>
+    <t>https://www.semsarmasr.com/3akarat/2285384/%D8%B4%D9%82%D8%A9-%D9%84%D9%84%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D8%A7%D9%84%D9%82%D8%AF%D9%8A%D9%85-%D8%A8%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D9%82%D8%A8%D9%84-%D8%A7%D9%84%D9%85%D9%86%D9%8A%D8%A8-%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9-%D8%A7%D9%84%D8%AF%D9%87%D8%A8-%D9%88%D9%83%D9%88%D9%84%D8%AF%D9%8A%D8%B1-%D9%85%D8%B5%D8%B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  بشارع متفرع من الشهيد احمد حمدى الطوابق فيصل بالقرب الدائرى</t>
+  </si>
+  <si>
+    <t>https://www.semsarmasr.com/3akarat/2283380/%D8%B4%D9%82%D8%A9-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%AF%D9%8A%D9%85-%D8%A8%D8%B4%D8%A7%D8%B1%D8%B9-%D9%85%D8%AA%D9%81%D8%B1%D8%B9-%D9%85%D9%86-%D8%A7%D9%84%D8%B4%D9%87%D9%8A%D8%AF-%D8%A7%D8%AD%D9%85%D8%AF-%D8%AD%D9%85%D8%AF%D9%89-%D8%A7%D9%84%D8%B7%D9%88%D8%A7%D8%A8%D9%82-%D9%81%D9%8A%D8%B5%D9%84-%D8%A8%D8%A7%D9%84%D9%82%D8%B1%D8%A8-%D8%A7%D9%84%D8%AF%D8%A7%D8%A6%D8%B1%D9%89-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D8%A7%D9%84%D9%87%D8%B1%D9%85-%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%85%D8%B5%D8%B1</t>
+  </si>
+  <si>
+    <t>لوكس</t>
+  </si>
+  <si>
+    <t>نور الاسلام للعقارات</t>
+  </si>
+  <si>
+    <t>بالمطبعه فيصل خلف الشبراوى</t>
+  </si>
+  <si>
+    <t>ايجار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملكة فيصل </t>
+  </si>
+  <si>
+    <t>مهاب احمد</t>
+  </si>
+  <si>
+    <t>https://www.semsarmasr.com/3akarat/2070097/%D8%B4%D8%A7%D8%B1%D8%B9-%D9%85%D9%84%D9%83%D8%A9-%D9%81%D9%8A%D8%B5%D9%84-%D8%B4%D9%81%D8%A9-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%AF%D9%8A%D9%85-%D9%84%D9%84%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1110%D9%85%D8%AA%D8%B1%D9%85%D8%B4%D8%B7%D8%A8%D8%A9-%D8%B3%D9%88%D8%A8%D8%B1%D9%84%D9%88%D9%83%D8%B3-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%85%D8%B5%D8%B1</t>
+  </si>
+  <si>
+    <t>صفط اللبن بجوار مسجد بلال</t>
+  </si>
+  <si>
+    <t>سوبر لوكس</t>
+  </si>
+  <si>
+    <t>اسامة عشماوى</t>
+  </si>
+  <si>
+    <t>https://www.semsarmasr.com/3akarat/2251248/%D8%B4%D9%82%D8%A9-90%D9%85-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D9%82%D8%AF%D9%8A%D9%85-%D8%A8%D8%AC%D9%88%D8%A7%D8%B1-%D9%85%D8%B3%D8%AC%D8%AF-%D8%A8%D9%84%D8%A7%D9%84-%D8%AA%D8%B1%D8%B9%D8%A9-%D8%B9%D8%A8%D8%AF-%D8%A7%D9%84%D8%B9%D8%A7%D9%84-1-%D8%B5%D9%81%D8%B7-%D8%A7%D9%84%D9%84%D8%A8%D9%86-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D8%A7%D9%84%D8%B9%D8%A7%D9%841-%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%85%D8%B5%D8%B1</t>
+  </si>
+  <si>
+    <t>شارع الورشة - الخصوص</t>
+  </si>
+  <si>
+    <t>100 0177227</t>
+  </si>
+  <si>
+    <t>https://www.semsarmasr.com/3akarat/2244426/%D8%B4%D9%82%D8%A9-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%AF%D9%8A%D9%85-%D8%A7%D9%84%D8%AE%D8%B5%D9%88%D8%B5-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D8%B4%D8%A7%D8%B1%D8%B9-%D8%A7%D9%84%D9%88%D8%B1%D8%B4%D8%A9.-%D8%A7%D9%85%D8%A7%D9%85-%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9-%D8%AD%D9%85%D8%A7%D8%AF-%D8%A7%D9%84%D9%82%D9%84%D9%8A%D9%88%D8%A8%D9%8A%D8%A9-%D9%85%D8%B5%D8%B1</t>
+  </si>
+  <si>
+    <t>بيشوي</t>
+  </si>
+  <si>
+    <t>رامي جودا</t>
+  </si>
+  <si>
+    <t>https://www.semsarmasr.com/3akarat/2243634/%D8%B4%D9%82%D8%A9-70%D9%85-%D9%86%D8%B2%D9%84%D8%A9-%D8%B1%D8%B4%D8%A7%D8%AD-%D8%A7%D9%84%D8%AE%D8%B5%D9%88%D8%B5-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D9%82%D8%AF%D9%8A%D9%85-%D8%AC%D9%86%D8%A8-%D9%85%D8%AD%D8%B7%D8%A9-%D8%A7%D9%84%D8%A7%D8%AA%D9%88%D8%A8%D9%8A%D8%B3-%D8%A7%D9%84%D9%82%D9%84%D9%8A%D9%88%D8%A8%D9%8A%D8%A9-%D9%85%D8%B5%D8%B1</t>
+  </si>
+  <si>
+    <t>نزلة الرشاح</t>
+  </si>
+  <si>
+    <t>شقق رخيصه في الخصوص والقاهره</t>
+  </si>
+  <si>
+    <t>سماسرة</t>
+  </si>
+  <si>
+    <t>ابو حمزة</t>
+  </si>
+  <si>
+    <t>المرج - الخصوص - اسبيكو</t>
+  </si>
+  <si>
+    <t>اسم</t>
+  </si>
+  <si>
+    <t>عنوان</t>
+  </si>
+  <si>
+    <t>محمول 1</t>
+  </si>
+  <si>
+    <t>محمول 2</t>
+  </si>
+  <si>
+    <t>محمول 3</t>
+  </si>
+  <si>
+    <t>محمد عبدالناصر|FB</t>
+  </si>
+  <si>
+    <t>صندوق الإسكان الاجتماعي 
+ودعم التمويل العقاري |FB</t>
+  </si>
+  <si>
+    <t>شقق مفروشة للايجار بالقاهرة
+[1029502674631019]</t>
+  </si>
+  <si>
+    <t>شقق الخصوص
+[4388420047935686]</t>
+  </si>
+  <si>
+    <t>شقق تمليك للبيع في عين شمس والف مسكن
+[4562086197178406]</t>
+  </si>
+  <si>
+    <t>شقق الخصوص ايجار قديم
+[830399293979582]</t>
+  </si>
+  <si>
+    <t>وزارة الإسكان والمرافق والمجتمعات العمرانية | فيسبوك</t>
+  </si>
+  <si>
+    <t>مشروعات هيئة المجتمعات العمرانية الجديدة</t>
+  </si>
+  <si>
+    <t>أطروحات هيئة المجتمعات العمرانية الجديدة</t>
+  </si>
+  <si>
+    <t>كلام فى المفيد</t>
+  </si>
+  <si>
+    <t>شقق قانون قديم
+ [360429968016346]</t>
+  </si>
+  <si>
+    <t>شقق رخيصه في الخصوص
+ [687506725836805]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,24 +362,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,7 +421,7 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,6 +429,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -307,14 +444,44 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,12 +496,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -359,26 +532,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -394,81 +571,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,6 +694,294 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>674597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Right 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE25841E-E90E-4E37-B2AD-318474DB4156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11205" y="3017747"/>
+          <a:ext cx="3589245" cy="898710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Youtube</a:t>
+          </a:r>
+          <a:endParaRPr lang="LID4096" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>596153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Arrow: Right 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75FE05C-7927-4C87-9DC0-877FC50BFAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5282453"/>
+          <a:ext cx="3476625" cy="842122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Groups</a:t>
+          </a:r>
+          <a:endParaRPr lang="LID4096" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>795058</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>202827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3019426</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>459441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E60675-0B8D-4892-B883-8F181DAC13DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11024908" y="202827"/>
+          <a:ext cx="2224368" cy="1037664"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1"/>
+            <a:t>Back</a:t>
+          </a:r>
+          <a:endParaRPr lang="LID4096" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E515CA5-7997-4873-9BA4-2016EA69A066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="485774"/>
+          <a:ext cx="1971675" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1"/>
+            <a:t>Back</a:t>
+          </a:r>
+          <a:endParaRPr lang="LID4096" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,158 +1246,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E454B6F-0A17-4201-ADB6-5D1FFA929538}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="40.85546875" style="2" hidden="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.shmff.gov.eg/wps/portal/MFF/Home/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizRwtzDwsTAx9LMIMLAwcQ42DDMM8fYwN3M30wwkpiAJKG-AAjgZA_VFgJXAT_H2DTQ0cDf2Dg41M3A3cnY2hCvCYEZxYpF-QG2GQZeKoCAC5BG0u/dz/d5/L2dJQSEvUUt3QS80TmxFL1o2XzZBODZIODQxTDhWMDgwQVUzUjFWSUwzMEc2/" xr:uid="{F0D78CF4-C133-4AA5-B4C6-36CF95E29636}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/SHMFFEG" xr:uid="{A483237D-A6D1-4F7E-9B9F-5535999F7BD1}"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://www.youtube.com/channel/UC68MAMp5g8Lft48Knm3pheg/videos" xr:uid="{19BD3361-FE58-4FEA-B41E-A3E70E46889C}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.youtube.com/channel/UC7i1WDNbbKbjWY4OIGCst8w/videos" xr:uid="{E6BB63F2-A886-45EE-8CD7-3C59A0961EFD}"/>
-    <hyperlink ref="C2" r:id="rId5" display="https://aqarmap.com.eg/ar" xr:uid="{E4FA56D4-5EEC-4109-882C-5C5E2F762572}"/>
-    <hyperlink ref="C1" r:id="rId6" display="https://www.semsarmasr.com/" xr:uid="{6FA1E058-F4BB-4E7A-AC12-5476FB51D18C}"/>
-    <hyperlink ref="B3" r:id="rId7" display="https://aleqaria.com.eg/" xr:uid="{D92F29DE-8924-49F9-9263-C110F1364988}"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.youtube.com/channel/UCJLF9U6vjPMxbgwQPxe6mlw/videos" xr:uid="{7B449496-E3DC-4696-BE8A-0C374B7C7E72}"/>
-    <hyperlink ref="A3" r:id="rId9" display="https://www.facebook.com/groups/360429968016346" xr:uid="{F3493D13-FF3D-4F1E-A63C-B6DC2D1B4EFE}"/>
-    <hyperlink ref="B4" r:id="rId10" display="https://www.facebook.com/MohamedAbdelNasser74" xr:uid="{3D12A194-7A00-49FC-B30E-581276A3E4A4}"/>
-    <hyperlink ref="D4" location="Companies!A1" display="Companies!A1" xr:uid="{8C10CB62-CBFE-4C1E-936F-0E2D0C347B8F}"/>
-    <hyperlink ref="D3" location="Advise1!A1" display="نصائح للشقق الايجار" xr:uid="{19075B46-FB7E-49FE-A058-DABA19BF29C4}"/>
-    <hyperlink ref="D2" location="Numbers!A1" display="ارقام سماسرة" xr:uid="{0B5A0362-45BC-463C-B893-8EE2E22B158B}"/>
-    <hyperlink ref="C8" r:id="rId11" display="سوق عقارات فيصل والهرم" xr:uid="{ADDDA7AB-1712-4F4B-8A06-69AC42858E42}"/>
-    <hyperlink ref="A9" r:id="rId12" display="https://www.facebook.com/groups/1651864581497187/?notif_id=1676920546287217&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{3C362A67-5F58-4B2A-92A3-92A14E06E636}"/>
-    <hyperlink ref="B8" r:id="rId13" display="https://www.facebook.com/groups/943068922832757/?notif_id=1677584840074067&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{ABF1F29F-FABD-49FD-A684-E4257537A0E2}"/>
-    <hyperlink ref="A8" r:id="rId14" display="https://www.facebook.com/groups/2843509115887407/" xr:uid="{C991E270-A83D-478E-9552-E544044F274D}"/>
-    <hyperlink ref="B9" r:id="rId15" display="https://www.facebook.com/groups/229042604342283/" xr:uid="{508944FA-2B64-4D60-A23C-5D2662FE3D43}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.facebook.com/SHMFFEG" xr:uid="{FECCD4FD-8147-4412-B8D2-9F952A184BCB}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.youtube.com/channel/UC68MAMp5g8Lft48Knm3pheg/videos" xr:uid="{3BB1C625-D485-44B2-982E-C12DA0F4F1A8}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.youtube.com/channel/UC7i1WDNbbKbjWY4OIGCst8w/videos" xr:uid="{F07EDD8A-E42E-4611-9A3C-0E243F31CE8D}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://aqarmap.com.eg/ar" xr:uid="{95AA9897-24C6-4D41-8A3C-68A4381ED301}"/>
+    <hyperlink ref="C1" r:id="rId5" display="https://www.semsarmasr.com/" xr:uid="{5E80B2C3-2F94-4232-B623-083A458AC2CA}"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://aleqaria.com.eg/" xr:uid="{C3DCAE61-1AED-4111-BC49-900197B94E26}"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://www.youtube.com/channel/UCJLF9U6vjPMxbgwQPxe6mlw/videos" xr:uid="{0E990B01-E835-4804-A4E6-6FDB99900E0A}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://www.facebook.com/groups/360429968016346" xr:uid="{53A98489-DAD3-4CE1-A4B4-AB4D91D51493}"/>
+    <hyperlink ref="A3" r:id="rId9" display="https://www.facebook.com/MohamedAbdelNasser74" xr:uid="{A4BF4638-9130-4D7C-B05A-EE369A7C5CB5}"/>
+    <hyperlink ref="D5" location="Companies!A1" display="Companies!A1" xr:uid="{5FC37F97-859F-47B0-BF0B-7526B4B0F65E}"/>
+    <hyperlink ref="D4" location="Advise1!A1" display="نصائح للشقق الايجار" xr:uid="{32192DFD-B1D2-457C-A4E3-643D4E889B6E}"/>
+    <hyperlink ref="D3" location="Numbers!A1" display="ارقام سماسرة" xr:uid="{1E35E26A-E65E-45EA-B5F3-9E126D3A3B79}"/>
+    <hyperlink ref="B5" r:id="rId10" display="سوق عقارات فيصل والهرم" xr:uid="{93B31F69-E627-46E6-9C3C-BA0DE2549F28}"/>
+    <hyperlink ref="A10" r:id="rId11" display="https://www.facebook.com/groups/1651864581497187/?notif_id=1676920546287217&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{BDCFBF8C-DA36-4FA6-AC95-D5E73ADE6B74}"/>
+    <hyperlink ref="B9" r:id="rId12" display="https://www.facebook.com/groups/943068922832757/?notif_id=1677584840074067&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{34BA7F0E-7B0C-403A-A733-EDEB1F29123A}"/>
+    <hyperlink ref="A9" r:id="rId13" display="https://www.facebook.com/groups/2843509115887407/" xr:uid="{29CBC0C0-8517-45A3-ADCC-72E300799A57}"/>
+    <hyperlink ref="C9" r:id="rId14" display="https://www.facebook.com/groups/229042604342283/" xr:uid="{343D2C35-E72E-4C77-A1FF-CFA8FCD45E01}"/>
+    <hyperlink ref="D6" location="AVG!A1" display="متوسط الأسعار   إيجار قديم" xr:uid="{BF156259-651A-43A9-A13B-FD5432EAC80C}"/>
+    <hyperlink ref="C6" r:id="rId15" xr:uid="{9DE19AC7-0D9E-47D2-8908-2F2B8DF5E280}"/>
+    <hyperlink ref="A1" r:id="rId16" display="https://www.shmff.gov.eg/wps/portal/MFF/Home/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizRwtzDwsTAx9LMIMLAwcQ42DDMM8fYwN3M30wwkpiAJKG-AAjgZA_VFgJXAT_H2DTQ0cDf2Dg41M3A3cnY2hCvCYEZxYpF-QG2GQZeKoCAC5BG0u/dz/d5/L2dJQSEvUUt3QS80TmxFL1o2XzZBODZIODQxTDhWMDgwQVUzUjFWSUwzMEc2/" xr:uid="{5DE94B0C-4347-4491-BF9D-4BB7FB274D83}"/>
+    <hyperlink ref="C10" r:id="rId17" display="https://www.facebook.com/groups/1029502674631019/" xr:uid="{74476BA4-7326-4297-A1DE-0A33F103A46E}"/>
+    <hyperlink ref="B8" r:id="rId18" display="شقق الخصوص ايجار قديم" xr:uid="{C24A56D8-C31A-4A04-BE1D-74E03EC2B2CD}"/>
+    <hyperlink ref="C8" r:id="rId19" display="شقق الخصوص" xr:uid="{0F4F6D94-BA7D-449F-A747-B90930AB7498}"/>
+    <hyperlink ref="D8" r:id="rId20" display="شقق رخيصه في الخصوص فقط" xr:uid="{4D902C00-57D0-44E2-B8C6-B26A2D7A616F}"/>
+    <hyperlink ref="D9" r:id="rId21" display="https://www.facebook.com/groups/4562086197178406/" xr:uid="{F36F1A62-897C-4D8E-AD4F-63DD16020CFB}"/>
+    <hyperlink ref="C2" r:id="rId22" xr:uid="{2167CA4A-AACB-410A-99E5-77F1249E7A1A}"/>
+    <hyperlink ref="C3" r:id="rId23" xr:uid="{470073A8-1DB9-4323-BB07-40EA066D1ADD}"/>
+    <hyperlink ref="B3" r:id="rId24" xr:uid="{AF2E6724-D1CA-4404-BB4F-5028D608CFE0}"/>
+    <hyperlink ref="A7" r:id="rId25" xr:uid="{6D031932-446D-4536-80AD-BC973431584E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -919,98 +1448,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1023,83 +1552,415 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D371EBEC-B1A6-4EEC-A3BA-4AF15A61EE3E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:XFC39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="9" customWidth="1"/>
-    <col min="3" max="6" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="9" hidden="1"/>
+    <col min="1" max="1" width="51.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16" style="22" customWidth="1"/>
+    <col min="7" max="7" width="0" style="22" hidden="1"/>
+    <col min="8" max="16383" width="9.140625" style="22" hidden="1"/>
+    <col min="16384" max="16384" width="10" style="22" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20">
         <v>1227504373</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="20">
         <v>1023409495</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="20">
         <v>1115204079</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="F2" s="19"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="20">
         <v>1028358685</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="20">
         <v>1221416005</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1125519116</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" location="Home!A1" display="Back" xr:uid="{7A98A2FF-8D88-46D1-B9FF-0B58E4094B3E}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{B42F4BE4-4284-426A-9941-66DF1A920FA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1113,112 +1974,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="12" customWidth="1"/>
-    <col min="3" max="7" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12" hidden="1"/>
+    <col min="1" max="1" width="112.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="8" customWidth="1"/>
+    <col min="3" max="7" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1229,4 +2090,699 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C83556A-CA03-407A-9F13-A54CBA12C462}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="10.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>80</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13">
+        <v>70</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1095305744</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>65</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13">
+        <v>70</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1003511128</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>60</v>
+      </c>
+      <c r="B4" s="13">
+        <v>650</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>65</v>
+      </c>
+      <c r="B5" s="13">
+        <v>700</v>
+      </c>
+      <c r="C5" s="13">
+        <v>110</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1098092622</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>90</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>90</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1002714644</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>55</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
+        <v>75</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>80</v>
+      </c>
+      <c r="B8" s="13">
+        <v>800</v>
+      </c>
+      <c r="C8" s="13">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1555012961</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>